--- a/output/endemo2_specific_consumption_coef_electricity.xlsx
+++ b/output/endemo2_specific_consumption_coef_electricity.xlsx
@@ -7422,41 +7422,41 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 2.9934292653876886)</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>222.0304411</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>-0.1082029</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-395.1055604</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>0.5077121</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0.0001537</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>222.0304411</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0.1082029</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>-395.1055604</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.5077121</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>-0.0001537</v>
       </c>
     </row>
     <row r="3">
@@ -7470,41 +7470,41 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 4.335035967360962)</t>
         </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>247.3717352</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0.1206782</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3769.942885</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-3.6362795</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.0008771</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>247.3717352</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0.1206782</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>3769.942885</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-3.6362795</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>0.0008771</v>
       </c>
     </row>
     <row r="4">
@@ -7518,41 +7518,41 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 7.726415385162614)</t>
         </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-67.2460648</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.037236</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6487.9641441</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-6.505004</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.0016323</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-67.2460648</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>0.037236</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>6487.9641441</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-6.505004</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>0.0016323</v>
       </c>
     </row>
     <row r="5">
@@ -7562,45 +7562,45 @@
         </is>
       </c>
       <c r="B5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>(2018, 2.994690265486726)</t>
+          <t>(2018, 2.3831305034058814)</t>
         </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2.9946903</v>
+        <v>298.6321488</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>-0.1466218</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>-31874.6613446</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>31.9630132</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>-0.0080114</v>
       </c>
       <c r="J5" t="n">
-        <v>2.9946903</v>
+        <v>298.6321488</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>-0.1466218</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-31874.6613446</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>31.9630132</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>-0.0080114</v>
       </c>
     </row>
     <row r="6">
@@ -7614,41 +7614,41 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.3125209564987204)</t>
         </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>98.8448157</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>-0.0472717</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-8705.332461399999</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>8.739485500000001</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>-0.0021923</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>98.8448157</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0.0472717</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>-8705.332461399999</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>8.739485500000001</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>-0.0021923</v>
       </c>
     </row>
     <row r="7">
@@ -7662,7 +7662,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>(2018.0, 15.3594)</t>
+          <t>(2018, 15.3594)</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -7710,7 +7710,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>(2018.0, 1.4207488018932446)</t>
+          <t>(2018, 1.4207488018932446)</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -7758,7 +7758,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>(2018.0, 3.2388130004710316)</t>
+          <t>(2018, 3.2388130004710316)</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>(2018.0, 3.6335709562563583)</t>
+          <t>(2018, 3.6335709562563583)</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -7854,41 +7854,41 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.350555669589186)</t>
         </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>153.4365599</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>-0.0749659</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>49589.8098032</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>-49.4135237</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.01231</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>153.4365599</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>-0.0749659</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>49589.8098032</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>-49.4135237</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>0.01231</v>
       </c>
     </row>
     <row r="12">
@@ -7902,41 +7902,41 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.36198828541822)</t>
         </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>136.2618055</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>-0.0659043</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>6839.9587035</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>-6.7563372</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.0016693</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>136.2618055</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>-0.0659043</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>6839.9587035</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>-6.7563372</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>0.0016693</v>
       </c>
     </row>
     <row r="13">
@@ -7950,41 +7950,41 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 4.939284601531085)</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1369.6938774</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>-0.6795177999999999</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>185115.8737055</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>-184.0621352</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.0457541</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>1369.6938774</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>-0.6795177999999999</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>185115.8737055</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-184.0621352</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>0.0457541</v>
       </c>
     </row>
     <row r="14">
@@ -7998,41 +7998,41 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2014, 26.07954329210276)</t>
         </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-67.49801050000001</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.0425624</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-966966.9661009</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>964.0557577</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-0.2402825</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>-67.49801050000001</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>0.0425624</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>-966966.9661009</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>964.0557577</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>-0.2402825</v>
       </c>
     </row>
     <row r="15">
@@ -8046,41 +8046,41 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.777473176726379)</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>9.886454799999999</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>-0.0029807</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>23826.8255832</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>-23.7745934</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.0059315</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>9.886454799999999</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>-0.0029807</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>23826.8255832</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>-23.7745934</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>0.0059315</v>
       </c>
     </row>
     <row r="16">
@@ -8094,41 +8094,41 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 2.714738255033557)</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>69.31585920000001</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>-0.0327117</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>-18488.6066069</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>18.4884919</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>-0.0046211</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>69.31585920000001</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-0.0327117</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>-18488.6066069</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>18.4884919</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>-0.0046211</v>
       </c>
     </row>
     <row r="17">
@@ -8138,45 +8138,45 @@
         </is>
       </c>
       <c r="B17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>(2018, 2.994690265486726)</t>
+          <t>(2018, 3.4382535691607106)</t>
         </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>2.9946903</v>
+        <v>78.3873866</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>-0.0372328</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>9585.8469996</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>-9.525880799999999</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.0023674</v>
       </c>
       <c r="J17" t="n">
-        <v>2.9946903</v>
+        <v>78.3873866</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>-0.0372328</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>9585.8469996</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>-9.525880799999999</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>0.0023674</v>
       </c>
     </row>
     <row r="18">
@@ -8190,41 +8190,41 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.446236534782528)</t>
         </is>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>262.5846277</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>-0.1287047</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>14048.1923624</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>-13.8870361</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.0034327</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>262.5846277</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>-0.1287047</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>14048.1923624</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>-13.8870361</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>0.0034327</v>
       </c>
     </row>
     <row r="19">
@@ -8238,41 +8238,41 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 5.332684821125188)</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>108.2446001</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>-0.0511042</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1482.9506685</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>-1.4230902</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.0003423</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>108.2446001</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>-0.0511042</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1482.9506685</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>-1.4230902</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>0.0003423</v>
       </c>
     </row>
     <row r="20">
@@ -8282,45 +8282,45 @@
         </is>
       </c>
       <c r="B20" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>(2018, 2.994690265486726)</t>
+          <t>(2018, 4.662113749083906)</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.9946903</v>
+        <v>181.6121292</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-0.0872691</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>65865.135861</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>-65.6408306</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.0163557</v>
       </c>
       <c r="J20" t="n">
-        <v>2.9946903</v>
+        <v>181.6121292</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>-0.0872691</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>65865.135861</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-65.6408306</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>0.0163557</v>
       </c>
     </row>
     <row r="21">
@@ -8334,41 +8334,41 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.4097014163583004)</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>121.5174218</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>-0.0587189</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>4868.6540898</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>-4.7964628</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.0011821</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>121.5174218</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>-0.0587189</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>4868.6540898</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>-4.7964628</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>0.0011821</v>
       </c>
     </row>
     <row r="22">
@@ -8382,41 +8382,41 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 3.3929890617925316)</t>
         </is>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>-172.6628968</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.0880174</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>-68960.35748789999</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>68.7311852</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>-0.0171244</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>-172.6628968</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>0.0880174</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>-68960.35748789999</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>68.7311852</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>-0.0171244</v>
       </c>
     </row>
     <row r="23">
@@ -8430,41 +8430,41 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 6.242981790591806)</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>112.8326837</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>-0.0528196</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>-10128.6417037</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.1683909</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>-0.0025502</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>112.8326837</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>-0.0528196</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>-10128.6417037</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>10.1683909</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>-0.0025502</v>
       </c>
     </row>
     <row r="24">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>(2018.0, 7.1105413667291195)</t>
+          <t>(2018, 7.1105413667291195)</t>
         </is>
       </c>
       <c r="D24" t="n">
@@ -8522,45 +8522,45 @@
         </is>
       </c>
       <c r="B25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>(2018, 2.994690265486726)</t>
+          <t>(2018, 9.598252696456086)</t>
         </is>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>2.9946903</v>
+        <v>-726.9843291</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.3672272</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>46962.9572053</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>-47.2283544</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.0118751</v>
       </c>
       <c r="J25" t="n">
-        <v>2.9946903</v>
+        <v>-726.9843291</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>0.3672272</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>46962.9572053</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>-47.2283544</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>0.0118751</v>
       </c>
     </row>
     <row r="26">
@@ -8574,41 +8574,41 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 12.274977954144621)</t>
         </is>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>86.34935110000001</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>-0.0371144</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>54055.6774833</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>-53.8996582</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>0.0134388</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>86.34935110000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0371144</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>54055.6774833</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-53.8996582</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>0.0134388</v>
       </c>
     </row>
     <row r="27">
@@ -8718,41 +8718,41 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 1.7222916666666668)</t>
         </is>
       </c>
       <c r="D29" t="n">
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>309.0283042</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>-0.1528262</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>15662.2193942</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>-15.4737594</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>0.0038221</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>309.0283042</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>-0.1528262</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>15662.2193942</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>-15.4737594</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>0.0038221</v>
       </c>
     </row>
     <row r="30">
@@ -8814,41 +8814,41 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 2.6970269299820466)</t>
         </is>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>-404.1827282</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.2021817</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>-56721.467369</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>56.2847924</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>-0.0139621</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>-404.1827282</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>0.2021817</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>-56721.467369</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>56.2847924</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>-0.0139621</v>
       </c>
     </row>
     <row r="32">
@@ -8910,7 +8910,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>(2018.0, 12.247575757575758)</t>
+          <t>(2018, 12.247575757575758)</t>
         </is>
       </c>
       <c r="D33" t="n">
@@ -8958,41 +8958,41 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 4.059476707083599)</t>
         </is>
       </c>
       <c r="D34" t="n">
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>529.8635718</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>-0.2612381</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>24665.4398856</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>-24.3490594</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.0060099</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>529.8635718</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-0.2612381</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>24665.4398856</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-24.3490594</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>0.0060099</v>
       </c>
     </row>
     <row r="35">
@@ -9006,41 +9006,41 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>(nan, nan)</t>
+          <t>(2018, 22.62025811497849)</t>
         </is>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>-1373.5975932</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.6910903</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>87722.6693273</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>-88.2288896</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.0221856</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>-1373.5975932</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.6910903</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>87722.6693273</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>-88.2288896</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.0221856</v>
       </c>
     </row>
   </sheetData>

--- a/output/endemo2_specific_consumption_coef_electricity.xlsx
+++ b/output/endemo2_specific_consumption_coef_electricity.xlsx
@@ -7429,34 +7429,34 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>222.0304411</v>
+        <v>220.273113763827</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1082029</v>
+        <v>-0.10731977996</v>
       </c>
       <c r="G2" t="n">
-        <v>-395.1055604</v>
+        <v>-991.660484554626</v>
       </c>
       <c r="H2" t="n">
-        <v>0.5077121</v>
+        <v>1.102181272009</v>
       </c>
       <c r="I2" t="n">
-        <v>-0.0001537</v>
+        <v>-0.000301762965</v>
       </c>
       <c r="J2" t="n">
-        <v>222.0304411</v>
+        <v>220.273113763827</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.1082029</v>
+        <v>-0.10731977996</v>
       </c>
       <c r="L2" t="n">
-        <v>-395.1055604</v>
+        <v>-991.660484554626</v>
       </c>
       <c r="M2" t="n">
-        <v>0.5077121</v>
+        <v>1.102181272009</v>
       </c>
       <c r="N2" t="n">
-        <v>-0.0001537</v>
+        <v>-0.000301762965</v>
       </c>
     </row>
     <row r="3">
@@ -7477,34 +7477,34 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>247.3717352</v>
+        <v>242.42263066133</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1206782</v>
+        <v>-0.118191194069</v>
       </c>
       <c r="G3" t="n">
-        <v>3769.942885</v>
+        <v>2190.739778944504</v>
       </c>
       <c r="H3" t="n">
-        <v>-3.6362795</v>
+        <v>-2.06259775536</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0008771</v>
+        <v>0.000485117303</v>
       </c>
       <c r="J3" t="n">
-        <v>247.3717352</v>
+        <v>242.42263066133</v>
       </c>
       <c r="K3" t="n">
-        <v>-0.1206782</v>
+        <v>-0.118191194069</v>
       </c>
       <c r="L3" t="n">
-        <v>3769.942885</v>
+        <v>2190.739778944504</v>
       </c>
       <c r="M3" t="n">
-        <v>-3.6362795</v>
+        <v>-2.06259775536</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0008771</v>
+        <v>0.000485117303</v>
       </c>
     </row>
     <row r="4">
@@ -7525,34 +7525,34 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>-67.2460648</v>
+        <v>-66.51672130678899</v>
       </c>
       <c r="F4" t="n">
-        <v>0.037236</v>
+        <v>0.036869487105</v>
       </c>
       <c r="G4" t="n">
-        <v>6487.9641441</v>
+        <v>6856.317450175703</v>
       </c>
       <c r="H4" t="n">
-        <v>-6.505004</v>
+        <v>-6.872069438789</v>
       </c>
       <c r="I4" t="n">
-        <v>0.0016323</v>
+        <v>0.001723737149</v>
       </c>
       <c r="J4" t="n">
-        <v>-67.2460648</v>
+        <v>-66.51672130678899</v>
       </c>
       <c r="K4" t="n">
-        <v>0.037236</v>
+        <v>0.036869487105</v>
       </c>
       <c r="L4" t="n">
-        <v>6487.9641441</v>
+        <v>6856.317450175703</v>
       </c>
       <c r="M4" t="n">
-        <v>-6.505004</v>
+        <v>-6.872069438789</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0016323</v>
+        <v>0.001723737149</v>
       </c>
     </row>
     <row r="5">
@@ -7573,34 +7573,34 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>298.6321488</v>
+        <v>300.156241387857</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.1466218</v>
+        <v>-0.147387697367</v>
       </c>
       <c r="G5" t="n">
-        <v>-31874.6613446</v>
+        <v>-31984.36548826309</v>
       </c>
       <c r="H5" t="n">
-        <v>31.9630132</v>
+        <v>32.072333786165</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0080114</v>
+        <v>-0.008038619451</v>
       </c>
       <c r="J5" t="n">
-        <v>298.6321488</v>
+        <v>300.156241387857</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.1466218</v>
+        <v>-0.147387697367</v>
       </c>
       <c r="L5" t="n">
-        <v>-31874.6613446</v>
+        <v>-31984.36548826309</v>
       </c>
       <c r="M5" t="n">
-        <v>31.9630132</v>
+        <v>32.072333786165</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0080114</v>
+        <v>-0.008038619451</v>
       </c>
     </row>
     <row r="6">
@@ -7621,34 +7621,34 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>98.8448157</v>
+        <v>100.163347414685</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.0472717</v>
+        <v>-0.047934310836</v>
       </c>
       <c r="G6" t="n">
-        <v>-8705.332461399999</v>
+        <v>-8435.40414090937</v>
       </c>
       <c r="H6" t="n">
-        <v>8.739485500000001</v>
+        <v>8.470500915822001</v>
       </c>
       <c r="I6" t="n">
-        <v>-0.0021923</v>
+        <v>-0.002125296432</v>
       </c>
       <c r="J6" t="n">
-        <v>98.8448157</v>
+        <v>100.163347414685</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.0472717</v>
+        <v>-0.047934310836</v>
       </c>
       <c r="L6" t="n">
-        <v>-8705.332461399999</v>
+        <v>-8435.40414090937</v>
       </c>
       <c r="M6" t="n">
-        <v>8.739485500000001</v>
+        <v>8.470500915822001</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.0021923</v>
+        <v>-0.002125296432</v>
       </c>
     </row>
     <row r="7">
@@ -7669,34 +7669,34 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>616.4017475000001</v>
+        <v>607.204514297158</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.2980962</v>
+        <v>-0.293463946775</v>
       </c>
       <c r="G7" t="n">
-        <v>-157400.4966665</v>
+        <v>-164226.9702769503</v>
       </c>
       <c r="H7" t="n">
-        <v>157.3832062</v>
+        <v>164.186828133903</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.039336</v>
+        <v>-0.041031097022</v>
       </c>
       <c r="J7" t="n">
-        <v>616.4017475000001</v>
+        <v>607.204514297158</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.2980962</v>
+        <v>-0.293463946775</v>
       </c>
       <c r="L7" t="n">
-        <v>-157400.4966665</v>
+        <v>-164226.9702769503</v>
       </c>
       <c r="M7" t="n">
-        <v>157.3832062</v>
+        <v>164.186828133903</v>
       </c>
       <c r="N7" t="n">
-        <v>-0.039336</v>
+        <v>-0.041031097022</v>
       </c>
     </row>
     <row r="8">
@@ -7717,34 +7717,34 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>46.1912661</v>
+        <v>49.916259880963</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0213607</v>
+        <v>-0.023232535315</v>
       </c>
       <c r="G8" t="n">
-        <v>-25049.084287</v>
+        <v>-24290.77403507068</v>
       </c>
       <c r="H8" t="n">
-        <v>25.0242611</v>
+        <v>24.268602065412</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.0062489</v>
+        <v>-0.006060661146</v>
       </c>
       <c r="J8" t="n">
-        <v>46.1912661</v>
+        <v>49.916259880963</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.0213607</v>
+        <v>-0.023232535315</v>
       </c>
       <c r="L8" t="n">
-        <v>-25049.084287</v>
+        <v>-24290.77403507068</v>
       </c>
       <c r="M8" t="n">
-        <v>25.0242611</v>
+        <v>24.268602065412</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.0062489</v>
+        <v>-0.006060661146</v>
       </c>
     </row>
     <row r="9">
@@ -7765,34 +7765,34 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>494.7962505</v>
+        <v>494.466904915794</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2441985</v>
+        <v>-0.244033006818</v>
       </c>
       <c r="G9" t="n">
-        <v>23670.2573845</v>
+        <v>24004.98970497143</v>
       </c>
       <c r="H9" t="n">
-        <v>-23.3738044</v>
+        <v>-23.707366392807</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0057709</v>
+        <v>0.005853955263</v>
       </c>
       <c r="J9" t="n">
-        <v>494.7962505</v>
+        <v>494.466904915794</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.2441985</v>
+        <v>-0.244033006818</v>
       </c>
       <c r="L9" t="n">
-        <v>23670.2573845</v>
+        <v>24004.98970497143</v>
       </c>
       <c r="M9" t="n">
-        <v>-23.3738044</v>
+        <v>-23.707366392807</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0057709</v>
+        <v>0.005853955263</v>
       </c>
     </row>
     <row r="10">
@@ -7813,34 +7813,34 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>106.5410941</v>
+        <v>104.744457353601</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.0509109</v>
+        <v>-0.050008039205</v>
       </c>
       <c r="G10" t="n">
-        <v>-13076.3075682</v>
+        <v>-13926.85029793866</v>
       </c>
       <c r="H10" t="n">
-        <v>13.105854</v>
+        <v>13.95342304059</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.0032826</v>
+        <v>-0.00349376867</v>
       </c>
       <c r="J10" t="n">
-        <v>106.5410941</v>
+        <v>104.744457353601</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.0509109</v>
+        <v>-0.050008039205</v>
       </c>
       <c r="L10" t="n">
-        <v>-13076.3075682</v>
+        <v>-13926.85029793866</v>
       </c>
       <c r="M10" t="n">
-        <v>13.105854</v>
+        <v>13.95342304059</v>
       </c>
       <c r="N10" t="n">
-        <v>-0.0032826</v>
+        <v>-0.00349376867</v>
       </c>
     </row>
     <row r="11">
@@ -7861,34 +7861,34 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>153.4365599</v>
+        <v>150.0397906163</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.0749659</v>
+        <v>-0.07325893462499999</v>
       </c>
       <c r="G11" t="n">
-        <v>49589.8098032</v>
+        <v>49407.3755101296</v>
       </c>
       <c r="H11" t="n">
-        <v>-49.4135237</v>
+        <v>-49.23172723078</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01231</v>
+        <v>0.012264731079</v>
       </c>
       <c r="J11" t="n">
-        <v>153.4365599</v>
+        <v>150.0397906163</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.0749659</v>
+        <v>-0.07325893462499999</v>
       </c>
       <c r="L11" t="n">
-        <v>49589.8098032</v>
+        <v>49407.3755101296</v>
       </c>
       <c r="M11" t="n">
-        <v>-49.4135237</v>
+        <v>-49.23172723078</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01231</v>
+        <v>0.012264731079</v>
       </c>
     </row>
     <row r="12">
@@ -7909,34 +7909,34 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>136.2618055</v>
+        <v>137.064848924997</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0659043</v>
+        <v>-0.06630781185</v>
       </c>
       <c r="G12" t="n">
-        <v>6839.9587035</v>
+        <v>7235.681284078719</v>
       </c>
       <c r="H12" t="n">
-        <v>-6.7563372</v>
+        <v>-7.150676178039</v>
       </c>
       <c r="I12" t="n">
-        <v>0.0016693</v>
+        <v>0.001767505699</v>
       </c>
       <c r="J12" t="n">
-        <v>136.2618055</v>
+        <v>137.064848924997</v>
       </c>
       <c r="K12" t="n">
-        <v>-0.0659043</v>
+        <v>-0.06630781185</v>
       </c>
       <c r="L12" t="n">
-        <v>6839.9587035</v>
+        <v>7235.681284078719</v>
       </c>
       <c r="M12" t="n">
-        <v>-6.7563372</v>
+        <v>-7.150676178039</v>
       </c>
       <c r="N12" t="n">
-        <v>0.0016693</v>
+        <v>0.001767505699</v>
       </c>
     </row>
     <row r="13">
@@ -7957,34 +7957,34 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1369.6938774</v>
+        <v>1362.447344278792</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.6795177999999999</v>
+        <v>-0.675876342725</v>
       </c>
       <c r="G13" t="n">
-        <v>185115.8737055</v>
+        <v>186227.4606804955</v>
       </c>
       <c r="H13" t="n">
-        <v>-184.0621352</v>
+        <v>-185.169835758326</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0457541</v>
+        <v>0.046030091587</v>
       </c>
       <c r="J13" t="n">
-        <v>1369.6938774</v>
+        <v>1362.447344278792</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.6795177999999999</v>
+        <v>-0.675876342725</v>
       </c>
       <c r="L13" t="n">
-        <v>185115.8737055</v>
+        <v>186227.4606804955</v>
       </c>
       <c r="M13" t="n">
-        <v>-184.0621352</v>
+        <v>-185.169835758326</v>
       </c>
       <c r="N13" t="n">
-        <v>0.0457541</v>
+        <v>0.046030091587</v>
       </c>
     </row>
     <row r="14">
@@ -8005,34 +8005,34 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>-67.49801050000001</v>
+        <v>81.619973292979</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0425624</v>
+        <v>-0.032071241448</v>
       </c>
       <c r="G14" t="n">
-        <v>-966966.9661009</v>
+        <v>-916791.3143336225</v>
       </c>
       <c r="H14" t="n">
-        <v>964.0557577</v>
+        <v>914.076800811714</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.2402825</v>
+        <v>-0.22783687229</v>
       </c>
       <c r="J14" t="n">
-        <v>-67.49801050000001</v>
+        <v>81.619973292979</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0425624</v>
+        <v>-0.032071241448</v>
       </c>
       <c r="L14" t="n">
-        <v>-966966.9661009</v>
+        <v>-916791.3143336225</v>
       </c>
       <c r="M14" t="n">
-        <v>964.0557577</v>
+        <v>914.076800811714</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.2402825</v>
+        <v>-0.22783687229</v>
       </c>
     </row>
     <row r="15">
@@ -8053,34 +8053,34 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>9.886454799999999</v>
+        <v>5.19294834142</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0029807</v>
+        <v>-0.000623361802</v>
       </c>
       <c r="G15" t="n">
-        <v>23826.8255832</v>
+        <v>22943.50063705872</v>
       </c>
       <c r="H15" t="n">
-        <v>-23.7745934</v>
+        <v>-22.894577937055</v>
       </c>
       <c r="I15" t="n">
-        <v>0.0059315</v>
+        <v>0.005712322685</v>
       </c>
       <c r="J15" t="n">
-        <v>9.886454799999999</v>
+        <v>5.19294834142</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.0029807</v>
+        <v>-0.000623361802</v>
       </c>
       <c r="L15" t="n">
-        <v>23826.8255832</v>
+        <v>22943.50063705872</v>
       </c>
       <c r="M15" t="n">
-        <v>-23.7745934</v>
+        <v>-22.894577937055</v>
       </c>
       <c r="N15" t="n">
-        <v>0.0059315</v>
+        <v>0.005712322685</v>
       </c>
     </row>
     <row r="16">
@@ -8101,34 +8101,34 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>69.31585920000001</v>
+        <v>70.091814312067</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.0327117</v>
+        <v>-0.033101593893</v>
       </c>
       <c r="G16" t="n">
-        <v>-18488.6066069</v>
+        <v>-18586.20972932776</v>
       </c>
       <c r="H16" t="n">
-        <v>18.4884919</v>
+        <v>18.585753741256</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.0046211</v>
+        <v>-0.00464528822</v>
       </c>
       <c r="J16" t="n">
-        <v>69.31585920000001</v>
+        <v>70.091814312067</v>
       </c>
       <c r="K16" t="n">
-        <v>-0.0327117</v>
+        <v>-0.033101593893</v>
       </c>
       <c r="L16" t="n">
-        <v>-18488.6066069</v>
+        <v>-18586.20972932776</v>
       </c>
       <c r="M16" t="n">
-        <v>18.4884919</v>
+        <v>18.585753741256</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0046211</v>
+        <v>-0.00464528822</v>
       </c>
     </row>
     <row r="17">
@@ -8149,34 +8149,34 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>78.3873866</v>
+        <v>77.488844247065</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0372328</v>
+        <v>-0.036781243628</v>
       </c>
       <c r="G17" t="n">
-        <v>9585.8469996</v>
+        <v>9469.146834023175</v>
       </c>
       <c r="H17" t="n">
-        <v>-9.525880799999999</v>
+        <v>-9.409588659922001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0023674</v>
+        <v>0.002338456962</v>
       </c>
       <c r="J17" t="n">
-        <v>78.3873866</v>
+        <v>77.488844247065</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0372328</v>
+        <v>-0.036781243628</v>
       </c>
       <c r="L17" t="n">
-        <v>9585.8469996</v>
+        <v>9469.146834023175</v>
       </c>
       <c r="M17" t="n">
-        <v>-9.525880799999999</v>
+        <v>-9.409588659922001</v>
       </c>
       <c r="N17" t="n">
-        <v>0.0023674</v>
+        <v>0.002338456962</v>
       </c>
     </row>
     <row r="18">
@@ -8197,34 +8197,34 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>262.5846277</v>
+        <v>261.249388678098</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.1287047</v>
+        <v>-0.128033716451</v>
       </c>
       <c r="G18" t="n">
-        <v>14048.1923624</v>
+        <v>13868.20827273981</v>
       </c>
       <c r="H18" t="n">
-        <v>-13.8870361</v>
+        <v>-13.707681237748</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0034327</v>
+        <v>0.003388037316</v>
       </c>
       <c r="J18" t="n">
-        <v>262.5846277</v>
+        <v>261.249388678098</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.1287047</v>
+        <v>-0.128033716451</v>
       </c>
       <c r="L18" t="n">
-        <v>14048.1923624</v>
+        <v>13868.20827273981</v>
       </c>
       <c r="M18" t="n">
-        <v>-13.8870361</v>
+        <v>-13.707681237748</v>
       </c>
       <c r="N18" t="n">
-        <v>0.0034327</v>
+        <v>0.003388037316</v>
       </c>
     </row>
     <row r="19">
@@ -8245,34 +8245,34 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>108.2446001</v>
+        <v>110.377907125223</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0511042</v>
+        <v>-0.05217620464</v>
       </c>
       <c r="G19" t="n">
-        <v>1482.9506685</v>
+        <v>2219.131023674267</v>
       </c>
       <c r="H19" t="n">
-        <v>-1.4230902</v>
+        <v>-2.156696713312</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0003423</v>
+        <v>0.000525064734</v>
       </c>
       <c r="J19" t="n">
-        <v>108.2446001</v>
+        <v>110.377907125223</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0511042</v>
+        <v>-0.05217620464</v>
       </c>
       <c r="L19" t="n">
-        <v>1482.9506685</v>
+        <v>2219.131023674267</v>
       </c>
       <c r="M19" t="n">
-        <v>-1.4230902</v>
+        <v>-2.156696713312</v>
       </c>
       <c r="N19" t="n">
-        <v>0.0003423</v>
+        <v>0.000525064734</v>
       </c>
     </row>
     <row r="20">
@@ -8293,34 +8293,34 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>181.6121292</v>
+        <v>174.525725571015</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0872691</v>
+        <v>-0.083708091979</v>
       </c>
       <c r="G20" t="n">
-        <v>65865.135861</v>
+        <v>64766.52149297039</v>
       </c>
       <c r="H20" t="n">
-        <v>-65.6408306</v>
+        <v>-64.546057298153</v>
       </c>
       <c r="I20" t="n">
-        <v>0.0163557</v>
+        <v>0.016082953866</v>
       </c>
       <c r="J20" t="n">
-        <v>181.6121292</v>
+        <v>174.525725571015</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.0872691</v>
+        <v>-0.083708091979</v>
       </c>
       <c r="L20" t="n">
-        <v>65865.135861</v>
+        <v>64766.52149297039</v>
       </c>
       <c r="M20" t="n">
-        <v>-65.6408306</v>
+        <v>-64.546057298153</v>
       </c>
       <c r="N20" t="n">
-        <v>0.0163557</v>
+        <v>0.016082953866</v>
       </c>
     </row>
     <row r="21">
@@ -8341,34 +8341,34 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>121.5174218</v>
+        <v>119.796118063539</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0587189</v>
+        <v>-0.057853929344</v>
       </c>
       <c r="G21" t="n">
-        <v>4868.6540898</v>
+        <v>4386.928576805258</v>
       </c>
       <c r="H21" t="n">
-        <v>-4.7964628</v>
+        <v>-4.316421564488</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0011821</v>
+        <v>0.00106248605</v>
       </c>
       <c r="J21" t="n">
-        <v>121.5174218</v>
+        <v>119.796118063539</v>
       </c>
       <c r="K21" t="n">
-        <v>-0.0587189</v>
+        <v>-0.057853929344</v>
       </c>
       <c r="L21" t="n">
-        <v>4868.6540898</v>
+        <v>4386.928576805258</v>
       </c>
       <c r="M21" t="n">
-        <v>-4.7964628</v>
+        <v>-4.316421564488</v>
       </c>
       <c r="N21" t="n">
-        <v>0.0011821</v>
+        <v>0.00106248605</v>
       </c>
     </row>
     <row r="22">
@@ -8389,34 +8389,34 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>-172.6628968</v>
+        <v>-170.209497028941</v>
       </c>
       <c r="F22" t="n">
-        <v>0.0880174</v>
+        <v>0.086784390583</v>
       </c>
       <c r="G22" t="n">
-        <v>-68960.35748789999</v>
+        <v>-69462.73413107343</v>
       </c>
       <c r="H22" t="n">
-        <v>68.7311852</v>
+        <v>69.23178849319</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.0171244</v>
+        <v>-0.017249153731</v>
       </c>
       <c r="J22" t="n">
-        <v>-172.6628968</v>
+        <v>-170.209497028941</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0880174</v>
+        <v>0.086784390583</v>
       </c>
       <c r="L22" t="n">
-        <v>-68960.35748789999</v>
+        <v>-69462.73413107343</v>
       </c>
       <c r="M22" t="n">
-        <v>68.7311852</v>
+        <v>69.23178849319</v>
       </c>
       <c r="N22" t="n">
-        <v>-0.0171244</v>
+        <v>-0.017249153731</v>
       </c>
     </row>
     <row r="23">
@@ -8437,34 +8437,34 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>112.8326837</v>
+        <v>111.407736715582</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.0528196</v>
+        <v>-0.052103500402</v>
       </c>
       <c r="G23" t="n">
-        <v>-10128.6417037</v>
+        <v>-10799.11881074434</v>
       </c>
       <c r="H23" t="n">
-        <v>10.1683909</v>
+        <v>10.836523859222</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.0025502</v>
+        <v>-0.002716644579</v>
       </c>
       <c r="J23" t="n">
-        <v>112.8326837</v>
+        <v>111.407736715582</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0528196</v>
+        <v>-0.052103500402</v>
       </c>
       <c r="L23" t="n">
-        <v>-10128.6417037</v>
+        <v>-10799.11881074434</v>
       </c>
       <c r="M23" t="n">
-        <v>10.1683909</v>
+        <v>10.836523859222</v>
       </c>
       <c r="N23" t="n">
-        <v>-0.0025502</v>
+        <v>-0.002716644579</v>
       </c>
     </row>
     <row r="24">
@@ -8485,34 +8485,34 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>171.4280077</v>
+        <v>173.340403126371</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.081859</v>
+        <v>-0.08281998268</v>
       </c>
       <c r="G24" t="n">
-        <v>-5816.6592616</v>
+        <v>-5295.142324324954</v>
       </c>
       <c r="H24" t="n">
-        <v>5.8943802</v>
+        <v>5.374686617275</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.0014911</v>
+        <v>-0.001361613841</v>
       </c>
       <c r="J24" t="n">
-        <v>171.4280077</v>
+        <v>173.340403126371</v>
       </c>
       <c r="K24" t="n">
-        <v>-0.081859</v>
+        <v>-0.08281998268</v>
       </c>
       <c r="L24" t="n">
-        <v>-5816.6592616</v>
+        <v>-5295.142324324954</v>
       </c>
       <c r="M24" t="n">
-        <v>5.8943802</v>
+        <v>5.374686617275</v>
       </c>
       <c r="N24" t="n">
-        <v>-0.0014911</v>
+        <v>-0.001361613841</v>
       </c>
     </row>
     <row r="25">
@@ -8533,34 +8533,34 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>-726.9843291</v>
+        <v>-734.661674801378</v>
       </c>
       <c r="F25" t="n">
-        <v>0.3672272</v>
+        <v>0.371085210516</v>
       </c>
       <c r="G25" t="n">
-        <v>46962.9572053</v>
+        <v>45322.74547305697</v>
       </c>
       <c r="H25" t="n">
-        <v>-47.2283544</v>
+        <v>-45.593877287123</v>
       </c>
       <c r="I25" t="n">
-        <v>0.0118751</v>
+        <v>0.011467971311</v>
       </c>
       <c r="J25" t="n">
-        <v>-726.9843291</v>
+        <v>-734.661674801378</v>
       </c>
       <c r="K25" t="n">
-        <v>0.3672272</v>
+        <v>0.371085210516</v>
       </c>
       <c r="L25" t="n">
-        <v>46962.9572053</v>
+        <v>45322.74547305697</v>
       </c>
       <c r="M25" t="n">
-        <v>-47.2283544</v>
+        <v>-45.593877287123</v>
       </c>
       <c r="N25" t="n">
-        <v>0.0118751</v>
+        <v>0.011467971311</v>
       </c>
     </row>
     <row r="26">
@@ -8581,34 +8581,34 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>86.34935110000001</v>
+        <v>81.44135339600901</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.0371144</v>
+        <v>-0.034648115376</v>
       </c>
       <c r="G26" t="n">
-        <v>54055.6774833</v>
+        <v>53457.31069380142</v>
       </c>
       <c r="H26" t="n">
-        <v>-53.8996582</v>
+        <v>-53.303383470677</v>
       </c>
       <c r="I26" t="n">
-        <v>0.0134388</v>
+        <v>0.013290217061</v>
       </c>
       <c r="J26" t="n">
-        <v>86.34935110000001</v>
+        <v>81.44135339600901</v>
       </c>
       <c r="K26" t="n">
-        <v>-0.0371144</v>
+        <v>-0.034648115376</v>
       </c>
       <c r="L26" t="n">
-        <v>54055.6774833</v>
+        <v>53457.31069380142</v>
       </c>
       <c r="M26" t="n">
-        <v>-53.8996582</v>
+        <v>-53.303383470677</v>
       </c>
       <c r="N26" t="n">
-        <v>0.0134388</v>
+        <v>0.013290217061</v>
       </c>
     </row>
     <row r="27">
@@ -8629,7 +8629,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -8644,7 +8644,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -8677,7 +8677,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -8692,7 +8692,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -8725,34 +8725,34 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>309.0283042</v>
+        <v>313.490745014007</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1528262</v>
+        <v>-0.155068934314</v>
       </c>
       <c r="G29" t="n">
-        <v>15662.2193942</v>
+        <v>17545.66208528776</v>
       </c>
       <c r="H29" t="n">
-        <v>-15.4737594</v>
+        <v>-17.350553790911</v>
       </c>
       <c r="I29" t="n">
-        <v>0.0038221</v>
+        <v>0.004289645588</v>
       </c>
       <c r="J29" t="n">
-        <v>309.0283042</v>
+        <v>313.490745014007</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.1528262</v>
+        <v>-0.155068934314</v>
       </c>
       <c r="L29" t="n">
-        <v>15662.2193942</v>
+        <v>17545.66208528776</v>
       </c>
       <c r="M29" t="n">
-        <v>-15.4737594</v>
+        <v>-17.350553790911</v>
       </c>
       <c r="N29" t="n">
-        <v>0.0038221</v>
+        <v>0.004289645588</v>
       </c>
     </row>
     <row r="30">
@@ -8773,7 +8773,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -8788,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -8821,34 +8821,34 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>-404.1827282</v>
+        <v>-404.182728191494</v>
       </c>
       <c r="F31" t="n">
-        <v>0.2021817</v>
+        <v>0.202181663791</v>
       </c>
       <c r="G31" t="n">
-        <v>-56721.467369</v>
+        <v>-56721.46736898353</v>
       </c>
       <c r="H31" t="n">
-        <v>56.2847924</v>
+        <v>56.284792406851</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.0139621</v>
+        <v>-0.013962086529</v>
       </c>
       <c r="J31" t="n">
-        <v>-404.1827282</v>
+        <v>-404.182728191494</v>
       </c>
       <c r="K31" t="n">
-        <v>0.2021817</v>
+        <v>0.202181663791</v>
       </c>
       <c r="L31" t="n">
-        <v>-56721.467369</v>
+        <v>-56721.46736898353</v>
       </c>
       <c r="M31" t="n">
-        <v>56.2847924</v>
+        <v>56.284792406851</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.0139621</v>
+        <v>-0.013962086529</v>
       </c>
     </row>
     <row r="32">
@@ -8869,7 +8869,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -8884,7 +8884,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.9946903</v>
+        <v>2.994690265487</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -8917,34 +8917,34 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>28068.2210411</v>
+        <v>28386.28701261156</v>
       </c>
       <c r="F33" t="n">
-        <v>-13.9158323</v>
+        <v>-14.073642229343</v>
       </c>
       <c r="G33" t="n">
-        <v>11789772.1797613</v>
+        <v>12605822.30612083</v>
       </c>
       <c r="H33" t="n">
-        <v>-11699.6912764</v>
+        <v>-12509.42622539343</v>
       </c>
       <c r="I33" t="n">
-        <v>2.9025771</v>
+        <v>3.103444084663</v>
       </c>
       <c r="J33" t="n">
-        <v>28068.2210411</v>
+        <v>28386.28701261156</v>
       </c>
       <c r="K33" t="n">
-        <v>-13.9158323</v>
+        <v>-14.073642229343</v>
       </c>
       <c r="L33" t="n">
-        <v>11789772.1797613</v>
+        <v>12605822.30612083</v>
       </c>
       <c r="M33" t="n">
-        <v>-11699.6912764</v>
+        <v>-12509.42622539343</v>
       </c>
       <c r="N33" t="n">
-        <v>2.9025771</v>
+        <v>3.103444084663</v>
       </c>
     </row>
     <row r="34">
@@ -8965,34 +8965,34 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>529.8635718</v>
+        <v>527.6992428980139</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.2612381</v>
+        <v>-0.260150468728</v>
       </c>
       <c r="G34" t="n">
-        <v>24665.4398856</v>
+        <v>24408.01730140436</v>
       </c>
       <c r="H34" t="n">
-        <v>-24.3490594</v>
+        <v>-24.092536874396</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0060099</v>
+        <v>0.005946031688</v>
       </c>
       <c r="J34" t="n">
-        <v>529.8635718</v>
+        <v>527.6992428980139</v>
       </c>
       <c r="K34" t="n">
-        <v>-0.2612381</v>
+        <v>-0.260150468728</v>
       </c>
       <c r="L34" t="n">
-        <v>24665.4398856</v>
+        <v>24408.01730140436</v>
       </c>
       <c r="M34" t="n">
-        <v>-24.3490594</v>
+        <v>-24.092536874396</v>
       </c>
       <c r="N34" t="n">
-        <v>0.0060099</v>
+        <v>0.005946031688</v>
       </c>
     </row>
     <row r="35">
@@ -9013,34 +9013,34 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>-1373.5975932</v>
+        <v>-1369.39571244151</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6910903</v>
+        <v>0.688978852027</v>
       </c>
       <c r="G35" t="n">
-        <v>87722.6693273</v>
+        <v>90828.92174011859</v>
       </c>
       <c r="H35" t="n">
-        <v>-88.2288896</v>
+        <v>-91.324281695781</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0221856</v>
+        <v>0.022956734321</v>
       </c>
       <c r="J35" t="n">
-        <v>-1373.5975932</v>
+        <v>-1369.39571244151</v>
       </c>
       <c r="K35" t="n">
-        <v>0.6910903</v>
+        <v>0.688978852027</v>
       </c>
       <c r="L35" t="n">
-        <v>87722.6693273</v>
+        <v>90828.92174011859</v>
       </c>
       <c r="M35" t="n">
-        <v>-88.2288896</v>
+        <v>-91.324281695781</v>
       </c>
       <c r="N35" t="n">
-        <v>0.0221856</v>
+        <v>0.022956734321</v>
       </c>
     </row>
   </sheetData>
@@ -10875,7 +10875,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -10890,7 +10890,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -10923,7 +10923,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -10938,7 +10938,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -10971,7 +10971,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -10986,7 +10986,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -11019,7 +11019,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -11034,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -11067,7 +11067,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -11082,7 +11082,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -11115,7 +11115,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -11130,7 +11130,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -11163,7 +11163,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -11178,7 +11178,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -11211,7 +11211,7 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -11226,7 +11226,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -11259,7 +11259,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -11274,7 +11274,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -11307,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -11322,7 +11322,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -11403,7 +11403,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -11418,7 +11418,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -11451,7 +11451,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -11466,7 +11466,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -11499,7 +11499,7 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -11514,7 +11514,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -11547,7 +11547,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -11562,7 +11562,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -11610,7 +11610,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -11643,7 +11643,7 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -11658,7 +11658,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -11691,7 +11691,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -11706,7 +11706,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -11739,7 +11739,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -11787,7 +11787,7 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
@@ -11802,7 +11802,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -11835,7 +11835,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -11850,7 +11850,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -11898,7 +11898,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -11931,7 +11931,7 @@
         <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F24" t="n">
         <v>0</v>
@@ -11946,7 +11946,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -11979,7 +11979,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -11994,7 +11994,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -12027,7 +12027,7 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -12042,7 +12042,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -12075,7 +12075,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -12090,7 +12090,7 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -12123,7 +12123,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -12171,7 +12171,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -12186,7 +12186,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -12219,7 +12219,7 @@
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -12234,7 +12234,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -12267,7 +12267,7 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -12282,7 +12282,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -12315,7 +12315,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -12330,7 +12330,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -12363,7 +12363,7 @@
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F33" t="n">
         <v>0</v>
@@ -12378,7 +12378,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -12411,7 +12411,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -12426,7 +12426,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -12459,7 +12459,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -12474,7 +12474,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.3898961</v>
+        <v>1.389896080003</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
